--- a/ANS-170-RC/ig/all-profiles.xlsx
+++ b/ANS-170-RC/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-08T10:11:20+00:00</t>
+    <t>2026-01-14T13:25:32+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -969,7 +969,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Device|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
+    <t xml:space="preserve">Reference(Device|PractitionerRole|Practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-practitioner-role|RelatedPerson|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-related-person|Organization|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-organization|Patient|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient-ins|https://hl7.fr/ig/fhir/core/StructureDefinition/fr-core-patient)
 </t>
   </si>
   <si>

--- a/ANS-170-RC/ig/all-profiles.xlsx
+++ b/ANS-170-RC/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-14T13:25:32+00:00</t>
+    <t>2026-01-15T13:02:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-RC/ig/all-profiles.xlsx
+++ b/ANS-170-RC/ig/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4946" uniqueCount="560">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4947" uniqueCount="561">
   <si>
     <t>Property</t>
   </si>
@@ -30,13 +30,13 @@
     <t>URL</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/TDEAuditEvent</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tde/StructureDefinition/TDEAuditEvent</t>
   </si>
   <si>
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>2.0.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-15T13:02:31+00:00</t>
+    <t>2026-01-21T14:10:51+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -81,7 +81,7 @@
     <t>Description</t>
   </si>
   <si>
-    <t>Traçabilité des évènements d'objets métiers</t>
+    <t>Profil représentant la trace d'un évènement</t>
   </si>
   <si>
     <t>Purpose</t>
@@ -1222,7 +1222,10 @@
     <t>TDEBundleResultatReponseRechercheTraces</t>
   </si>
   <si>
-    <t>https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/TDEBundleResultatReponseRechercheTraces</t>
+    <t>https://interop.esante.gouv.fr/ig/fhir/tde/StructureDefinition/TDEBundleResultatReponseRechercheTraces</t>
+  </si>
+  <si>
+    <t>Bundle de réponse à la recherche de traces</t>
   </si>
   <si>
     <t>Bundle</t>
@@ -1663,7 +1666,7 @@
     <t>Bundle.entry:AuditEvent.resource</t>
   </si>
   <si>
-    <t xml:space="preserve">AuditEvent {https://interop.esante.gouv.fr/ig/fhir/[code]/StructureDefinition/TDEAuditEvent}
+    <t xml:space="preserve">AuditEvent {https://interop.esante.gouv.fr/ig/fhir/tde/StructureDefinition/TDEAuditEvent}
 </t>
   </si>
   <si>
@@ -2158,7 +2161,9 @@
       <c r="A34" t="s" s="2">
         <v>21</v>
       </c>
-      <c r="B34" s="2"/>
+      <c r="B34" t="s" s="2">
+        <v>390</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="s" s="2">
@@ -2193,7 +2198,7 @@
         <v>29</v>
       </c>
       <c r="B39" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
     </row>
     <row r="40">
@@ -2201,7 +2206,7 @@
         <v>31</v>
       </c>
       <c r="B40" t="s" s="2">
-        <v>391</v>
+        <v>392</v>
       </c>
     </row>
     <row r="41">
@@ -9339,10 +9344,10 @@
         <v>388</v>
       </c>
       <c r="B68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="C68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="D68" s="2"/>
       <c r="E68" t="s" s="2">
@@ -9368,10 +9373,10 @@
         <v>76</v>
       </c>
       <c r="M68" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="N68" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="O68" s="2"/>
       <c r="P68" s="2"/>
@@ -9422,7 +9427,7 @@
         <v>73</v>
       </c>
       <c r="AG68" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="AH68" t="s" s="2">
         <v>74</v>
@@ -9434,7 +9439,7 @@
         <v>73</v>
       </c>
       <c r="AK68" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
     </row>
     <row r="69">
@@ -9442,10 +9447,10 @@
         <v>388</v>
       </c>
       <c r="B69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="C69" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="D69" s="2"/>
       <c r="E69" t="s" s="2">
@@ -9547,10 +9552,10 @@
         <v>388</v>
       </c>
       <c r="B70" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C70" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="D70" s="2"/>
       <c r="E70" t="s" s="2">
@@ -9650,10 +9655,10 @@
         <v>388</v>
       </c>
       <c r="B71" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="C71" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="D71" s="2"/>
       <c r="E71" t="s" s="2">
@@ -9755,10 +9760,10 @@
         <v>388</v>
       </c>
       <c r="B72" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C72" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="D72" s="2"/>
       <c r="E72" t="s" s="2">
@@ -9860,10 +9865,10 @@
         <v>388</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="C73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="D73" s="2"/>
       <c r="E73" t="s" s="2">
@@ -9886,16 +9891,16 @@
         <v>83</v>
       </c>
       <c r="L73" t="s" s="2">
-        <v>400</v>
+        <v>401</v>
       </c>
       <c r="M73" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="N73" t="s" s="2">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="O73" t="s" s="2">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="P73" s="2"/>
       <c r="Q73" t="s" s="2">
@@ -9945,7 +9950,7 @@
         <v>73</v>
       </c>
       <c r="AG73" t="s" s="2">
-        <v>399</v>
+        <v>400</v>
       </c>
       <c r="AH73" t="s" s="2">
         <v>74</v>
@@ -9965,10 +9970,10 @@
         <v>388</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="D74" s="2"/>
       <c r="E74" t="s" s="2">
@@ -9994,13 +9999,13 @@
         <v>102</v>
       </c>
       <c r="M74" t="s" s="2">
-        <v>405</v>
+        <v>406</v>
       </c>
       <c r="N74" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="O74" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="P74" s="2"/>
       <c r="Q74" t="s" s="2">
@@ -10029,10 +10034,10 @@
         <v>155</v>
       </c>
       <c r="Z74" t="s" s="2">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="AA74" t="s" s="2">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="AB74" t="s" s="2">
         <v>73</v>
@@ -10050,7 +10055,7 @@
         <v>73</v>
       </c>
       <c r="AG74" t="s" s="2">
-        <v>404</v>
+        <v>405</v>
       </c>
       <c r="AH74" t="s" s="2">
         <v>82</v>
@@ -10070,10 +10075,10 @@
         <v>388</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="D75" s="2"/>
       <c r="E75" t="s" s="2">
@@ -10099,13 +10104,13 @@
         <v>188</v>
       </c>
       <c r="M75" t="s" s="2">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="N75" t="s" s="2">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="O75" t="s" s="2">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="P75" s="2"/>
       <c r="Q75" t="s" s="2">
@@ -10155,7 +10160,7 @@
         <v>73</v>
       </c>
       <c r="AG75" t="s" s="2">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="AH75" t="s" s="2">
         <v>74</v>
@@ -10175,10 +10180,10 @@
         <v>388</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C76" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="D76" s="2"/>
       <c r="E76" t="s" s="2">
@@ -10201,16 +10206,16 @@
         <v>83</v>
       </c>
       <c r="L76" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="M76" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="N76" t="s" s="2">
-        <v>417</v>
+        <v>418</v>
       </c>
       <c r="O76" t="s" s="2">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="P76" s="2"/>
       <c r="Q76" t="s" s="2">
@@ -10260,7 +10265,7 @@
         <v>73</v>
       </c>
       <c r="AG76" t="s" s="2">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="AH76" t="s" s="2">
         <v>74</v>
@@ -10269,7 +10274,7 @@
         <v>82</v>
       </c>
       <c r="AJ76" t="s" s="2">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="AK76" t="s" s="2">
         <v>94</v>
@@ -10280,10 +10285,10 @@
         <v>388</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="D77" s="2"/>
       <c r="E77" t="s" s="2">
@@ -10309,13 +10314,13 @@
         <v>211</v>
       </c>
       <c r="M77" t="s" s="2">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="N77" t="s" s="2">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="O77" t="s" s="2">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="P77" s="2"/>
       <c r="Q77" t="s" s="2">
@@ -10365,7 +10370,7 @@
         <v>73</v>
       </c>
       <c r="AG77" t="s" s="2">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="AH77" t="s" s="2">
         <v>74</v>
@@ -10385,10 +10390,10 @@
         <v>388</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>424</v>
+        <v>425</v>
       </c>
       <c r="D78" s="2"/>
       <c r="E78" t="s" s="2">
@@ -10488,10 +10493,10 @@
         <v>388</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D79" s="2"/>
       <c r="E79" t="s" s="2">
@@ -10593,10 +10598,10 @@
         <v>388</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="D80" s="2"/>
       <c r="E80" t="s" s="2">
@@ -10700,10 +10705,10 @@
         <v>388</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="D81" s="2"/>
       <c r="E81" t="s" s="2">
@@ -10729,10 +10734,10 @@
         <v>164</v>
       </c>
       <c r="M81" t="s" s="2">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="N81" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="O81" s="2"/>
       <c r="P81" s="2"/>
@@ -10783,7 +10788,7 @@
         <v>73</v>
       </c>
       <c r="AG81" t="s" s="2">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="AH81" t="s" s="2">
         <v>82</v>
@@ -10803,10 +10808,10 @@
         <v>388</v>
       </c>
       <c r="B82" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C82" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="D82" s="2"/>
       <c r="E82" t="s" s="2">
@@ -10832,10 +10837,10 @@
         <v>96</v>
       </c>
       <c r="M82" t="s" s="2">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="N82" t="s" s="2">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="O82" s="2"/>
       <c r="P82" s="2"/>
@@ -10886,7 +10891,7 @@
         <v>73</v>
       </c>
       <c r="AG82" t="s" s="2">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="AH82" t="s" s="2">
         <v>82</v>
@@ -10906,10 +10911,10 @@
         <v>388</v>
       </c>
       <c r="B83" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="C83" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D83" s="2"/>
       <c r="E83" t="s" s="2">
@@ -10935,10 +10940,10 @@
         <v>211</v>
       </c>
       <c r="M83" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N83" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O83" s="2"/>
       <c r="P83" s="2"/>
@@ -10977,7 +10982,7 @@
         <v>73</v>
       </c>
       <c r="AC83" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="AD83" s="2"/>
       <c r="AE83" t="s" s="2">
@@ -10987,7 +10992,7 @@
         <v>172</v>
       </c>
       <c r="AG83" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AH83" t="s" s="2">
         <v>74</v>
@@ -10999,7 +11004,7 @@
         <v>73</v>
       </c>
       <c r="AK83" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="84">
@@ -11007,10 +11012,10 @@
         <v>388</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D84" s="2"/>
       <c r="E84" t="s" s="2">
@@ -11110,10 +11115,10 @@
         <v>388</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D85" s="2"/>
       <c r="E85" t="s" s="2">
@@ -11215,10 +11220,10 @@
         <v>388</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D86" s="2"/>
       <c r="E86" t="s" s="2">
@@ -11322,10 +11327,10 @@
         <v>388</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D87" s="2"/>
       <c r="E87" t="s" s="2">
@@ -11351,10 +11356,10 @@
         <v>76</v>
       </c>
       <c r="M87" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N87" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O87" s="2"/>
       <c r="P87" s="2"/>
@@ -11405,7 +11410,7 @@
         <v>73</v>
       </c>
       <c r="AG87" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH87" t="s" s="2">
         <v>74</v>
@@ -11425,10 +11430,10 @@
         <v>388</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D88" s="2"/>
       <c r="E88" t="s" s="2">
@@ -11454,13 +11459,13 @@
         <v>96</v>
       </c>
       <c r="M88" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N88" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O88" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P88" s="2"/>
       <c r="Q88" t="s" s="2">
@@ -11510,7 +11515,7 @@
         <v>73</v>
       </c>
       <c r="AG88" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AH88" t="s" s="2">
         <v>74</v>
@@ -11530,10 +11535,10 @@
         <v>388</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D89" s="2"/>
       <c r="E89" t="s" s="2">
@@ -11559,10 +11564,10 @@
         <v>119</v>
       </c>
       <c r="M89" t="s" s="2">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="N89" t="s" s="2">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="O89" s="2"/>
       <c r="P89" s="2"/>
@@ -11613,7 +11618,7 @@
         <v>73</v>
       </c>
       <c r="AG89" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AH89" t="s" s="2">
         <v>74</v>
@@ -11633,10 +11638,10 @@
         <v>388</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D90" s="2"/>
       <c r="E90" t="s" s="2">
@@ -11662,10 +11667,10 @@
         <v>211</v>
       </c>
       <c r="M90" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N90" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O90" s="2"/>
       <c r="P90" s="2"/>
@@ -11716,7 +11721,7 @@
         <v>73</v>
       </c>
       <c r="AG90" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH90" t="s" s="2">
         <v>74</v>
@@ -11725,7 +11730,7 @@
         <v>82</v>
       </c>
       <c r="AJ90" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK90" t="s" s="2">
         <v>94</v>
@@ -11736,10 +11741,10 @@
         <v>388</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D91" s="2"/>
       <c r="E91" t="s" s="2">
@@ -11839,10 +11844,10 @@
         <v>388</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D92" s="2"/>
       <c r="E92" t="s" s="2">
@@ -11944,10 +11949,10 @@
         <v>388</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D93" s="2"/>
       <c r="E93" t="s" s="2">
@@ -12051,10 +12056,10 @@
         <v>388</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D94" s="2"/>
       <c r="E94" t="s" s="2">
@@ -12080,13 +12085,13 @@
         <v>102</v>
       </c>
       <c r="M94" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N94" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O94" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P94" s="2"/>
       <c r="Q94" t="s" s="2">
@@ -12115,10 +12120,10 @@
         <v>155</v>
       </c>
       <c r="Z94" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AA94" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AB94" t="s" s="2">
         <v>73</v>
@@ -12136,7 +12141,7 @@
         <v>73</v>
       </c>
       <c r="AG94" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AH94" t="s" s="2">
         <v>74</v>
@@ -12156,10 +12161,10 @@
         <v>388</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D95" s="2"/>
       <c r="E95" t="s" s="2">
@@ -12182,16 +12187,16 @@
         <v>83</v>
       </c>
       <c r="L95" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M95" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N95" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O95" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P95" s="2"/>
       <c r="Q95" t="s" s="2">
@@ -12241,7 +12246,7 @@
         <v>73</v>
       </c>
       <c r="AG95" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AH95" t="s" s="2">
         <v>74</v>
@@ -12261,10 +12266,10 @@
         <v>388</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D96" s="2"/>
       <c r="E96" t="s" s="2">
@@ -12290,10 +12295,10 @@
         <v>211</v>
       </c>
       <c r="M96" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N96" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O96" s="2"/>
       <c r="P96" s="2"/>
@@ -12344,7 +12349,7 @@
         <v>73</v>
       </c>
       <c r="AG96" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AH96" t="s" s="2">
         <v>74</v>
@@ -12353,7 +12358,7 @@
         <v>82</v>
       </c>
       <c r="AJ96" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AK96" t="s" s="2">
         <v>94</v>
@@ -12364,10 +12369,10 @@
         <v>388</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D97" s="2"/>
       <c r="E97" t="s" s="2">
@@ -12467,10 +12472,10 @@
         <v>388</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D98" s="2"/>
       <c r="E98" t="s" s="2">
@@ -12572,10 +12577,10 @@
         <v>388</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D99" s="2"/>
       <c r="E99" t="s" s="2">
@@ -12679,10 +12684,10 @@
         <v>388</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D100" s="2"/>
       <c r="E100" t="s" s="2">
@@ -12708,10 +12713,10 @@
         <v>102</v>
       </c>
       <c r="M100" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N100" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O100" s="2"/>
       <c r="P100" s="2"/>
@@ -12741,10 +12746,10 @@
         <v>155</v>
       </c>
       <c r="Z100" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA100" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AB100" t="s" s="2">
         <v>73</v>
@@ -12762,7 +12767,7 @@
         <v>73</v>
       </c>
       <c r="AG100" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AH100" t="s" s="2">
         <v>82</v>
@@ -12782,10 +12787,10 @@
         <v>388</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D101" s="2"/>
       <c r="E101" t="s" s="2">
@@ -12811,13 +12816,13 @@
         <v>96</v>
       </c>
       <c r="M101" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N101" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O101" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P101" s="2"/>
       <c r="Q101" t="s" s="2">
@@ -12867,7 +12872,7 @@
         <v>73</v>
       </c>
       <c r="AG101" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AH101" t="s" s="2">
         <v>82</v>
@@ -12887,10 +12892,10 @@
         <v>388</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D102" s="2"/>
       <c r="E102" t="s" s="2">
@@ -12916,10 +12921,10 @@
         <v>164</v>
       </c>
       <c r="M102" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N102" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O102" s="2"/>
       <c r="P102" s="2"/>
@@ -12970,7 +12975,7 @@
         <v>73</v>
       </c>
       <c r="AG102" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AH102" t="s" s="2">
         <v>74</v>
@@ -12990,10 +12995,10 @@
         <v>388</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D103" s="2"/>
       <c r="E103" t="s" s="2">
@@ -13019,10 +13024,10 @@
         <v>188</v>
       </c>
       <c r="M103" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N103" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O103" s="2"/>
       <c r="P103" s="2"/>
@@ -13073,7 +13078,7 @@
         <v>73</v>
       </c>
       <c r="AG103" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AH103" t="s" s="2">
         <v>74</v>
@@ -13093,10 +13098,10 @@
         <v>388</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D104" s="2"/>
       <c r="E104" t="s" s="2">
@@ -13122,10 +13127,10 @@
         <v>164</v>
       </c>
       <c r="M104" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N104" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O104" s="2"/>
       <c r="P104" s="2"/>
@@ -13176,7 +13181,7 @@
         <v>73</v>
       </c>
       <c r="AG104" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AH104" t="s" s="2">
         <v>74</v>
@@ -13196,10 +13201,10 @@
         <v>388</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D105" s="2"/>
       <c r="E105" t="s" s="2">
@@ -13225,10 +13230,10 @@
         <v>164</v>
       </c>
       <c r="M105" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N105" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O105" s="2"/>
       <c r="P105" s="2"/>
@@ -13279,7 +13284,7 @@
         <v>73</v>
       </c>
       <c r="AG105" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AH105" t="s" s="2">
         <v>74</v>
@@ -13299,10 +13304,10 @@
         <v>388</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="C106" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D106" s="2"/>
       <c r="E106" t="s" s="2">
@@ -13328,10 +13333,10 @@
         <v>211</v>
       </c>
       <c r="M106" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N106" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O106" s="2"/>
       <c r="P106" s="2"/>
@@ -13382,7 +13387,7 @@
         <v>73</v>
       </c>
       <c r="AG106" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AH106" t="s" s="2">
         <v>74</v>
@@ -13391,7 +13396,7 @@
         <v>82</v>
       </c>
       <c r="AJ106" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AK106" t="s" s="2">
         <v>94</v>
@@ -13402,10 +13407,10 @@
         <v>388</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="C107" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D107" s="2"/>
       <c r="E107" t="s" s="2">
@@ -13505,10 +13510,10 @@
         <v>388</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D108" s="2"/>
       <c r="E108" t="s" s="2">
@@ -13610,10 +13615,10 @@
         <v>388</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D109" s="2"/>
       <c r="E109" t="s" s="2">
@@ -13717,10 +13722,10 @@
         <v>388</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D110" s="2"/>
       <c r="E110" t="s" s="2">
@@ -13746,10 +13751,10 @@
         <v>164</v>
       </c>
       <c r="M110" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N110" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O110" s="2"/>
       <c r="P110" s="2"/>
@@ -13800,7 +13805,7 @@
         <v>73</v>
       </c>
       <c r="AG110" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AH110" t="s" s="2">
         <v>82</v>
@@ -13820,10 +13825,10 @@
         <v>388</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D111" s="2"/>
       <c r="E111" t="s" s="2">
@@ -13849,10 +13854,10 @@
         <v>96</v>
       </c>
       <c r="M111" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N111" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O111" s="2"/>
       <c r="P111" s="2"/>
@@ -13903,7 +13908,7 @@
         <v>73</v>
       </c>
       <c r="AG111" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AH111" t="s" s="2">
         <v>74</v>
@@ -13923,10 +13928,10 @@
         <v>388</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D112" s="2"/>
       <c r="E112" t="s" s="2">
@@ -13952,13 +13957,13 @@
         <v>164</v>
       </c>
       <c r="M112" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N112" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O112" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P112" s="2"/>
       <c r="Q112" t="s" s="2">
@@ -14008,7 +14013,7 @@
         <v>73</v>
       </c>
       <c r="AG112" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH112" t="s" s="2">
         <v>74</v>
@@ -14028,10 +14033,10 @@
         <v>388</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D113" s="2"/>
       <c r="E113" t="s" s="2">
@@ -14057,13 +14062,13 @@
         <v>188</v>
       </c>
       <c r="M113" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N113" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O113" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P113" s="2"/>
       <c r="Q113" t="s" s="2">
@@ -14113,7 +14118,7 @@
         <v>73</v>
       </c>
       <c r="AG113" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AH113" t="s" s="2">
         <v>74</v>
@@ -14133,10 +14138,10 @@
         <v>388</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D114" s="2"/>
       <c r="E114" t="s" s="2">
@@ -14162,13 +14167,13 @@
         <v>119</v>
       </c>
       <c r="M114" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N114" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O114" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P114" s="2"/>
       <c r="Q114" t="s" s="2">
@@ -14218,7 +14223,7 @@
         <v>73</v>
       </c>
       <c r="AG114" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AH114" t="s" s="2">
         <v>74</v>
@@ -14238,10 +14243,10 @@
         <v>388</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="D115" t="s" s="2">
         <v>30</v>
@@ -14269,10 +14274,10 @@
         <v>211</v>
       </c>
       <c r="M115" t="s" s="2">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="N115" t="s" s="2">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="O115" s="2"/>
       <c r="P115" s="2"/>
@@ -14323,7 +14328,7 @@
         <v>73</v>
       </c>
       <c r="AG115" t="s" s="2">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="AH115" t="s" s="2">
         <v>74</v>
@@ -14335,7 +14340,7 @@
         <v>73</v>
       </c>
       <c r="AK115" t="s" s="2">
-        <v>437</v>
+        <v>438</v>
       </c>
     </row>
     <row r="116">
@@ -14343,10 +14348,10 @@
         <v>388</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>522</v>
+        <v>523</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="D116" s="2"/>
       <c r="E116" t="s" s="2">
@@ -14446,10 +14451,10 @@
         <v>388</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="D117" s="2"/>
       <c r="E117" t="s" s="2">
@@ -14551,10 +14556,10 @@
         <v>388</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="D118" s="2"/>
       <c r="E118" t="s" s="2">
@@ -14658,10 +14663,10 @@
         <v>388</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="D119" s="2"/>
       <c r="E119" t="s" s="2">
@@ -14687,10 +14692,10 @@
         <v>76</v>
       </c>
       <c r="M119" t="s" s="2">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="N119" t="s" s="2">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="O119" s="2"/>
       <c r="P119" s="2"/>
@@ -14741,7 +14746,7 @@
         <v>73</v>
       </c>
       <c r="AG119" t="s" s="2">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="AH119" t="s" s="2">
         <v>74</v>
@@ -14761,10 +14766,10 @@
         <v>388</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="D120" s="2"/>
       <c r="E120" t="s" s="2">
@@ -14790,13 +14795,13 @@
         <v>96</v>
       </c>
       <c r="M120" t="s" s="2">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="N120" t="s" s="2">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="O120" t="s" s="2">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="P120" s="2"/>
       <c r="Q120" t="s" s="2">
@@ -14846,7 +14851,7 @@
         <v>73</v>
       </c>
       <c r="AG120" t="s" s="2">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="AH120" t="s" s="2">
         <v>74</v>
@@ -14866,10 +14871,10 @@
         <v>388</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="D121" s="2"/>
       <c r="E121" t="s" s="2">
@@ -14892,7 +14897,7 @@
         <v>73</v>
       </c>
       <c r="L121" t="s" s="2">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="M121" t="s" s="2">
         <v>77</v>
@@ -14951,7 +14956,7 @@
         <v>73</v>
       </c>
       <c r="AG121" t="s" s="2">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="AH121" t="s" s="2">
         <v>74</v>
@@ -14971,10 +14976,10 @@
         <v>388</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="D122" s="2"/>
       <c r="E122" t="s" s="2">
@@ -15000,10 +15005,10 @@
         <v>211</v>
       </c>
       <c r="M122" t="s" s="2">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="N122" t="s" s="2">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="O122" s="2"/>
       <c r="P122" s="2"/>
@@ -15054,7 +15059,7 @@
         <v>73</v>
       </c>
       <c r="AG122" t="s" s="2">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="AH122" t="s" s="2">
         <v>74</v>
@@ -15063,7 +15068,7 @@
         <v>82</v>
       </c>
       <c r="AJ122" t="s" s="2">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="AK122" t="s" s="2">
         <v>94</v>
@@ -15074,10 +15079,10 @@
         <v>388</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="D123" s="2"/>
       <c r="E123" t="s" s="2">
@@ -15177,10 +15182,10 @@
         <v>388</v>
       </c>
       <c r="B124" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="D124" s="2"/>
       <c r="E124" t="s" s="2">
@@ -15282,10 +15287,10 @@
         <v>388</v>
       </c>
       <c r="B125" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="D125" s="2"/>
       <c r="E125" t="s" s="2">
@@ -15389,10 +15394,10 @@
         <v>388</v>
       </c>
       <c r="B126" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="D126" s="2"/>
       <c r="E126" t="s" s="2">
@@ -15418,13 +15423,13 @@
         <v>102</v>
       </c>
       <c r="M126" t="s" s="2">
-        <v>459</v>
+        <v>460</v>
       </c>
       <c r="N126" t="s" s="2">
-        <v>460</v>
+        <v>461</v>
       </c>
       <c r="O126" t="s" s="2">
-        <v>461</v>
+        <v>462</v>
       </c>
       <c r="P126" s="2"/>
       <c r="Q126" t="s" s="2">
@@ -15453,10 +15458,10 @@
         <v>155</v>
       </c>
       <c r="Z126" t="s" s="2">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="AA126" t="s" s="2">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="AB126" t="s" s="2">
         <v>73</v>
@@ -15474,7 +15479,7 @@
         <v>73</v>
       </c>
       <c r="AG126" t="s" s="2">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="AH126" t="s" s="2">
         <v>74</v>
@@ -15494,10 +15499,10 @@
         <v>388</v>
       </c>
       <c r="B127" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="D127" s="2"/>
       <c r="E127" t="s" s="2">
@@ -15520,16 +15525,16 @@
         <v>83</v>
       </c>
       <c r="L127" t="s" s="2">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="M127" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="N127" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="O127" t="s" s="2">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="P127" s="2"/>
       <c r="Q127" t="s" s="2">
@@ -15579,7 +15584,7 @@
         <v>73</v>
       </c>
       <c r="AG127" t="s" s="2">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="AH127" t="s" s="2">
         <v>74</v>
@@ -15599,10 +15604,10 @@
         <v>388</v>
       </c>
       <c r="B128" t="s" s="2">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="D128" s="2"/>
       <c r="E128" t="s" s="2">
@@ -15628,10 +15633,10 @@
         <v>211</v>
       </c>
       <c r="M128" t="s" s="2">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="N128" t="s" s="2">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="O128" s="2"/>
       <c r="P128" s="2"/>
@@ -15682,7 +15687,7 @@
         <v>73</v>
       </c>
       <c r="AG128" t="s" s="2">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="AH128" t="s" s="2">
         <v>74</v>
@@ -15691,7 +15696,7 @@
         <v>82</v>
       </c>
       <c r="AJ128" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="AK128" t="s" s="2">
         <v>94</v>
@@ -15702,10 +15707,10 @@
         <v>388</v>
       </c>
       <c r="B129" t="s" s="2">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="D129" s="2"/>
       <c r="E129" t="s" s="2">
@@ -15805,10 +15810,10 @@
         <v>388</v>
       </c>
       <c r="B130" t="s" s="2">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="D130" s="2"/>
       <c r="E130" t="s" s="2">
@@ -15910,10 +15915,10 @@
         <v>388</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="D131" s="2"/>
       <c r="E131" t="s" s="2">
@@ -16017,10 +16022,10 @@
         <v>388</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="D132" s="2"/>
       <c r="E132" t="s" s="2">
@@ -16046,10 +16051,10 @@
         <v>102</v>
       </c>
       <c r="M132" t="s" s="2">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="N132" t="s" s="2">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="O132" s="2"/>
       <c r="P132" s="2"/>
@@ -16079,10 +16084,10 @@
         <v>155</v>
       </c>
       <c r="Z132" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="AA132" t="s" s="2">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="AB132" t="s" s="2">
         <v>73</v>
@@ -16100,7 +16105,7 @@
         <v>73</v>
       </c>
       <c r="AG132" t="s" s="2">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="AH132" t="s" s="2">
         <v>82</v>
@@ -16120,10 +16125,10 @@
         <v>388</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="D133" s="2"/>
       <c r="E133" t="s" s="2">
@@ -16149,13 +16154,13 @@
         <v>96</v>
       </c>
       <c r="M133" t="s" s="2">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="N133" t="s" s="2">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="O133" t="s" s="2">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="P133" s="2"/>
       <c r="Q133" t="s" s="2">
@@ -16205,7 +16210,7 @@
         <v>73</v>
       </c>
       <c r="AG133" t="s" s="2">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="AH133" t="s" s="2">
         <v>82</v>
@@ -16225,10 +16230,10 @@
         <v>388</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="D134" s="2"/>
       <c r="E134" t="s" s="2">
@@ -16254,10 +16259,10 @@
         <v>164</v>
       </c>
       <c r="M134" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N134" t="s" s="2">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="O134" s="2"/>
       <c r="P134" s="2"/>
@@ -16308,7 +16313,7 @@
         <v>73</v>
       </c>
       <c r="AG134" t="s" s="2">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="AH134" t="s" s="2">
         <v>74</v>
@@ -16328,10 +16333,10 @@
         <v>388</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="D135" s="2"/>
       <c r="E135" t="s" s="2">
@@ -16357,10 +16362,10 @@
         <v>188</v>
       </c>
       <c r="M135" t="s" s="2">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="N135" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="O135" s="2"/>
       <c r="P135" s="2"/>
@@ -16411,7 +16416,7 @@
         <v>73</v>
       </c>
       <c r="AG135" t="s" s="2">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="AH135" t="s" s="2">
         <v>74</v>
@@ -16431,10 +16436,10 @@
         <v>388</v>
       </c>
       <c r="B136" t="s" s="2">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="C136" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D136" s="2"/>
       <c r="E136" t="s" s="2">
@@ -16460,10 +16465,10 @@
         <v>164</v>
       </c>
       <c r="M136" t="s" s="2">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="N136" t="s" s="2">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="O136" s="2"/>
       <c r="P136" s="2"/>
@@ -16514,7 +16519,7 @@
         <v>73</v>
       </c>
       <c r="AG136" t="s" s="2">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="AH136" t="s" s="2">
         <v>74</v>
@@ -16534,10 +16539,10 @@
         <v>388</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="D137" s="2"/>
       <c r="E137" t="s" s="2">
@@ -16563,10 +16568,10 @@
         <v>164</v>
       </c>
       <c r="M137" t="s" s="2">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="N137" t="s" s="2">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="O137" s="2"/>
       <c r="P137" s="2"/>
@@ -16617,7 +16622,7 @@
         <v>73</v>
       </c>
       <c r="AG137" t="s" s="2">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="AH137" t="s" s="2">
         <v>74</v>
@@ -16637,10 +16642,10 @@
         <v>388</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="D138" s="2"/>
       <c r="E138" t="s" s="2">
@@ -16666,10 +16671,10 @@
         <v>211</v>
       </c>
       <c r="M138" t="s" s="2">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="N138" t="s" s="2">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="O138" s="2"/>
       <c r="P138" s="2"/>
@@ -16720,7 +16725,7 @@
         <v>73</v>
       </c>
       <c r="AG138" t="s" s="2">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="AH138" t="s" s="2">
         <v>74</v>
@@ -16729,7 +16734,7 @@
         <v>82</v>
       </c>
       <c r="AJ138" t="s" s="2">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="AK138" t="s" s="2">
         <v>94</v>
@@ -16740,10 +16745,10 @@
         <v>388</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="D139" s="2"/>
       <c r="E139" t="s" s="2">
@@ -16843,10 +16848,10 @@
         <v>388</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="D140" s="2"/>
       <c r="E140" t="s" s="2">
@@ -16948,10 +16953,10 @@
         <v>388</v>
       </c>
       <c r="B141" t="s" s="2">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D141" s="2"/>
       <c r="E141" t="s" s="2">
@@ -17055,10 +17060,10 @@
         <v>388</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="D142" s="2"/>
       <c r="E142" t="s" s="2">
@@ -17084,10 +17089,10 @@
         <v>164</v>
       </c>
       <c r="M142" t="s" s="2">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="N142" t="s" s="2">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="O142" s="2"/>
       <c r="P142" s="2"/>
@@ -17138,7 +17143,7 @@
         <v>73</v>
       </c>
       <c r="AG142" t="s" s="2">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="AH142" t="s" s="2">
         <v>82</v>
@@ -17158,10 +17163,10 @@
         <v>388</v>
       </c>
       <c r="B143" t="s" s="2">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="D143" s="2"/>
       <c r="E143" t="s" s="2">
@@ -17187,10 +17192,10 @@
         <v>96</v>
       </c>
       <c r="M143" t="s" s="2">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="N143" t="s" s="2">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="O143" s="2"/>
       <c r="P143" s="2"/>
@@ -17241,7 +17246,7 @@
         <v>73</v>
       </c>
       <c r="AG143" t="s" s="2">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="AH143" t="s" s="2">
         <v>74</v>
@@ -17261,10 +17266,10 @@
         <v>388</v>
       </c>
       <c r="B144" t="s" s="2">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="D144" s="2"/>
       <c r="E144" t="s" s="2">
@@ -17290,13 +17295,13 @@
         <v>164</v>
       </c>
       <c r="M144" t="s" s="2">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="N144" t="s" s="2">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="O144" t="s" s="2">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="P144" s="2"/>
       <c r="Q144" t="s" s="2">
@@ -17346,7 +17351,7 @@
         <v>73</v>
       </c>
       <c r="AG144" t="s" s="2">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="AH144" t="s" s="2">
         <v>74</v>
@@ -17366,10 +17371,10 @@
         <v>388</v>
       </c>
       <c r="B145" t="s" s="2">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="D145" s="2"/>
       <c r="E145" t="s" s="2">
@@ -17395,13 +17400,13 @@
         <v>188</v>
       </c>
       <c r="M145" t="s" s="2">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="N145" t="s" s="2">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="O145" t="s" s="2">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="P145" s="2"/>
       <c r="Q145" t="s" s="2">
@@ -17451,7 +17456,7 @@
         <v>73</v>
       </c>
       <c r="AG145" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="AH145" t="s" s="2">
         <v>74</v>
@@ -17471,10 +17476,10 @@
         <v>388</v>
       </c>
       <c r="B146" t="s" s="2">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="D146" s="2"/>
       <c r="E146" t="s" s="2">
@@ -17500,13 +17505,13 @@
         <v>119</v>
       </c>
       <c r="M146" t="s" s="2">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="N146" t="s" s="2">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="O146" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="P146" s="2"/>
       <c r="Q146" t="s" s="2">
@@ -17556,7 +17561,7 @@
         <v>73</v>
       </c>
       <c r="AG146" t="s" s="2">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="AH146" t="s" s="2">
         <v>74</v>
@@ -17576,10 +17581,10 @@
         <v>388</v>
       </c>
       <c r="B147" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="D147" s="2"/>
       <c r="E147" t="s" s="2">
@@ -17602,19 +17607,19 @@
         <v>83</v>
       </c>
       <c r="L147" t="s" s="2">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="M147" t="s" s="2">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="N147" t="s" s="2">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="O147" t="s" s="2">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="P147" t="s" s="2">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="Q147" t="s" s="2">
         <v>73</v>
@@ -17663,7 +17668,7 @@
         <v>73</v>
       </c>
       <c r="AG147" t="s" s="2">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="AH147" t="s" s="2">
         <v>74</v>

--- a/ANS-170-RC/ig/all-profiles.xlsx
+++ b/ANS-170-RC/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-21T14:10:51+00:00</t>
+    <t>2026-01-30T11:08:28+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-RC/ig/all-profiles.xlsx
+++ b/ANS-170-RC/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-30T11:08:28+00:00</t>
+    <t>2026-01-30T15:03:31+00:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/ANS-170-RC/ig/all-profiles.xlsx
+++ b/ANS-170-RC/ig/all-profiles.xlsx
@@ -57,7 +57,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2026-01-30T15:44:16+00:00</t>
+    <t>2026-02-03T13:33:49+00:00</t>
   </si>
   <si>
     <t>Publisher</t>
